--- a/data/trans_dic/P36BPD04_R1_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R1_2023-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9647724923059889</v>
+        <v>0.9647724923059892</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9468995847647752</v>
+        <v>0.9468995847647751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9563710700866078</v>
+        <v>0.9563710700866076</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9404504429762944</v>
+        <v>0.9395967076760722</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9234337991665781</v>
+        <v>0.9227825124551909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9409489290072748</v>
+        <v>0.939981816519399</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9804160625177533</v>
+        <v>0.9780970395436587</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9628954879060857</v>
+        <v>0.964230527894284</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9686177149769502</v>
+        <v>0.9677494959707004</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.936472318228604</v>
+        <v>0.9364723182286039</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9365440474691817</v>
+        <v>0.9365440474691816</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9365058058968436</v>
+        <v>0.9365058058968434</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9050891849910911</v>
+        <v>0.9047756656007943</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9068228341983184</v>
+        <v>0.9039378336007178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9173262456913887</v>
+        <v>0.9177582671949384</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9605905189549634</v>
+        <v>0.9594760645559702</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9563211764369143</v>
+        <v>0.9536235296007577</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9522305154493307</v>
+        <v>0.952703153156732</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9430718010815504</v>
+        <v>0.9430718010815502</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9673844106696188</v>
+        <v>0.9673844106696187</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.9499730083838883</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9176590819746645</v>
+        <v>0.9155483720153746</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9398181666081052</v>
+        <v>0.9388897582284922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9273992846986177</v>
+        <v>0.9292755885010686</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9621013243965207</v>
+        <v>0.9626701317566186</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9835622283896642</v>
+        <v>0.9845043062792402</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9641893550553253</v>
+        <v>0.9643395710333807</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9331241312529617</v>
+        <v>0.9331241312529618</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.9353739474773659</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9340961111807388</v>
+        <v>0.9340961111807389</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9130907531480592</v>
+        <v>0.9150689882639672</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9182395375888452</v>
+        <v>0.919701536344141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9214247731625915</v>
+        <v>0.9227495244045499</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9483921112328</v>
+        <v>0.9473139366973976</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9502123993005376</v>
+        <v>0.9504796493191672</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9444278858335206</v>
+        <v>0.9452871185651274</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9324888116259614</v>
+        <v>0.9324888116259612</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9502562589747741</v>
+        <v>0.9502562589747742</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9430474634597695</v>
+        <v>0.9430474634597693</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9061202934933699</v>
+        <v>0.903778652002433</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.937512447890815</v>
+        <v>0.9350677821436044</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9280573845368728</v>
+        <v>0.9289426930527224</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9532882757179967</v>
+        <v>0.9540346586725074</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9623940702355352</v>
+        <v>0.9617711537227646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9536908453411997</v>
+        <v>0.9552168779594602</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.95437182857313</v>
+        <v>0.9543718285731299</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.9555907375866416</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9553232723600352</v>
+        <v>0.9553232723600351</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8911740544760431</v>
+        <v>0.8904501439968847</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9361464851842342</v>
+        <v>0.9375437894808668</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9385970595471939</v>
+        <v>0.9377502797908528</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9834261244235081</v>
+        <v>0.9872538851179999</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.968108845429471</v>
+        <v>0.9683200565660285</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9687985703880161</v>
+        <v>0.9681175612913961</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9413838965096271</v>
+        <v>0.9413838965096272</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.9468048137098314</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.931699590073316</v>
+        <v>0.9319754543100935</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9397204678622034</v>
+        <v>0.9395920057564909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9381280214748363</v>
+        <v>0.9373715771596042</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9502993950418099</v>
+        <v>0.9514878735175848</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.953511271571593</v>
+        <v>0.9538206262098247</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9494055670860677</v>
+        <v>0.9494550074904048</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>517829</v>
+        <v>517359</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>451015</v>
+        <v>450697</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>977673</v>
+        <v>976668</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>539835</v>
+        <v>538558</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>470289</v>
+        <v>470941</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1006422</v>
+        <v>1005520</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>437350</v>
+        <v>437198</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>383716</v>
+        <v>382495</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>831423</v>
+        <v>831815</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>464169</v>
+        <v>463630</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>404661</v>
+        <v>403519</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>863059</v>
+        <v>863487</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>432779</v>
+        <v>431784</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>175679</v>
+        <v>175506</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>610730</v>
+        <v>611965</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>453739</v>
+        <v>454007</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>183856</v>
+        <v>184032</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>634957</v>
+        <v>635056</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1032455</v>
+        <v>1034691</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>789759</v>
+        <v>791017</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1834377</v>
+        <v>1837014</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1072371</v>
+        <v>1071152</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>817259</v>
+        <v>817489</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1880172</v>
+        <v>1881882</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>513663</v>
+        <v>512336</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>778422</v>
+        <v>776392</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1296671</v>
+        <v>1297908</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>540402</v>
+        <v>540825</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>799082</v>
+        <v>798564</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1332485</v>
+        <v>1334618</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>211411</v>
+        <v>211240</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>789996</v>
+        <v>791175</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1014726</v>
+        <v>1013810</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>233296</v>
+        <v>234204</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>816969</v>
+        <v>817147</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1047377</v>
+        <v>1046641</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3205304</v>
+        <v>3206253</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3413770</v>
+        <v>3413303</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6635404</v>
+        <v>6630054</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3269292</v>
+        <v>3273381</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3463868</v>
+        <v>3464992</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6715170</v>
+        <v>6715520</v>
       </c>
     </row>
     <row r="32">
